--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi1-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi1-Rtn4r.xlsx
@@ -537,10 +537,10 @@
         <v>0.489044</v>
       </c>
       <c r="I2">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J2">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,22 +555,22 @@
         <v>0.471381</v>
       </c>
       <c r="O2">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="P2">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="Q2">
-        <v>0.02561400552933334</v>
+        <v>0.02561400552933333</v>
       </c>
       <c r="R2">
         <v>0.230526049764</v>
       </c>
       <c r="S2">
-        <v>0.8498603688275759</v>
+        <v>0.5693459188514154</v>
       </c>
       <c r="T2">
-        <v>0.8498603688275758</v>
+        <v>0.5693459188514154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.489044</v>
       </c>
       <c r="I3">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J3">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,10 +629,10 @@
         <v>0.037943456828</v>
       </c>
       <c r="S3">
-        <v>0.1398828472853703</v>
+        <v>0.09371154502605064</v>
       </c>
       <c r="T3">
-        <v>0.1398828472853703</v>
+        <v>0.09371154502605063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.001689333333333333</v>
+        <v>0.08283833333333333</v>
       </c>
       <c r="H4">
-        <v>0.005068</v>
+        <v>0.248515</v>
       </c>
       <c r="I4">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="J4">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,22 +679,22 @@
         <v>0.471381</v>
       </c>
       <c r="O4">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="P4">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="Q4">
-        <v>0.0002654398786666667</v>
+        <v>0.01301613880166667</v>
       </c>
       <c r="R4">
-        <v>0.002388958908</v>
+        <v>0.117145249215</v>
       </c>
       <c r="S4">
-        <v>0.00880716734939628</v>
+        <v>0.2893216173255566</v>
       </c>
       <c r="T4">
-        <v>0.008807167349396279</v>
+        <v>0.2893216173255566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,22 +711,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.001689333333333333</v>
+        <v>0.08283833333333333</v>
       </c>
       <c r="H5">
-        <v>0.005068</v>
+        <v>0.248515</v>
       </c>
       <c r="I5">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="J5">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,16 +747,16 @@
         <v>0.1413324638230279</v>
       </c>
       <c r="Q5">
-        <v>4.369010177777778E-05</v>
+        <v>0.002142392589444445</v>
       </c>
       <c r="R5">
-        <v>0.000393210916</v>
+        <v>0.019281533305</v>
       </c>
       <c r="S5">
-        <v>0.001449616537657668</v>
+        <v>0.04762091879697732</v>
       </c>
       <c r="T5">
-        <v>0.001449616537657668</v>
+        <v>0.04762091879697731</v>
       </c>
     </row>
   </sheetData>
